--- a/medicine/Enfance/Elisabeth_Castonier/Elisabeth_Castonier.xlsx
+++ b/medicine/Enfance/Elisabeth_Castonier/Elisabeth_Castonier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elisabeth Castonier (née le 6 mars 1894 - morte le 24 septembre 1975) est une écrivaine allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Castonier est la fille du peintre Felix Borchardt. Elle passe son enfance à Dresde jusqu'à ce que sa famille déménage à Paris.
 En 1912, elle déménage à Berlin. En 1923, elle épouse le chanteur Paul Castonier, avec qui elle divorcera plus tard.
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Frau, Knecht, Magd, 1932
 (en) Eternal Front, Londres, James Clarke and Co. 1942
